--- a/CE_Capstone_2/엑셀-간트차트-자동화-양식-v1.1.xlsx
+++ b/CE_Capstone_2/엑셀-간트차트-자동화-양식-v1.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinj\Development\Dongguk4\컴퓨터공학종합설계2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinj\Development\Dongguk4\CE_Capstone_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D5B022-76B4-4791-9CF9-46CBC1FE4248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0755CC40-803E-478C-A76A-AB339C6D047F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{7453B445-7095-4582-ACAE-BBB40EA0D2E1}"/>
   </bookViews>
@@ -153,22 +153,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>로그인 화면 구성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 화면</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 기능 구현</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 기능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DB 식재료 저장 구현</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -242,6 +226,22 @@
   </si>
   <si>
     <t>보고서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>바코드 인식 화면 구성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>바코드 인식 기능 구현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>바코드 인식 기능</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>바코드 인식 화면</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -791,10 +791,10 @@
                     <c:v>0.2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>0.8</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>4.5</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0</c:v>
@@ -860,10 +860,10 @@
                     <c:v>0.2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>0.8</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>4.5</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0</c:v>
@@ -939,10 +939,10 @@
                   <c:v>메인 화면 구성</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>로그인 화면 구성</c:v>
+                  <c:v>바코드 인식 화면 구성</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>로그인 기능 구현</c:v>
+                  <c:v>바코드 인식 기능 구현</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>식재료 입력 화면 구성</c:v>
@@ -1058,10 +1058,10 @@
                   <c:v>메인 화면 구성</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>로그인 화면 구성</c:v>
+                  <c:v>바코드 인식 화면 구성</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>로그인 기능 구현</c:v>
+                  <c:v>바코드 인식 기능 구현</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>식재료 입력 화면 구성</c:v>
@@ -2109,64 +2109,64 @@
                 <c:formatCode>mm"월"\ dd"일"</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>45190</c:v>
+                  <c:v>45197</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45190</c:v>
+                  <c:v>45197</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45190</c:v>
+                  <c:v>45197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45190</c:v>
+                  <c:v>45197</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45190</c:v>
+                  <c:v>45197</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45190</c:v>
+                  <c:v>45197</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45190</c:v>
+                  <c:v>45197</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45190</c:v>
+                  <c:v>45197</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45190</c:v>
+                  <c:v>45197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45190</c:v>
+                  <c:v>45197</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45190</c:v>
+                  <c:v>45197</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45190</c:v>
+                  <c:v>45197</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45190</c:v>
+                  <c:v>45197</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45190</c:v>
+                  <c:v>45197</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45190</c:v>
+                  <c:v>45197</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45190</c:v>
+                  <c:v>45197</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45190</c:v>
+                  <c:v>45197</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45190</c:v>
+                  <c:v>45197</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45190</c:v>
+                  <c:v>45197</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45190</c:v>
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2248,7 +2248,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>오늘 (9월 21일)</c:v>
+                    <c:v>오늘 (9월 28일)</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2787,7 +2787,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{602B1CDA-B97B-45C5-B38A-17EDFA6737B4}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ko-KR"/>
+                      <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2818,7 +2818,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E7C04625-6DBB-4D4B-B40A-E773EF8B708C}" type="CELLRANGE">
+                    <a:fld id="{BA394EEE-AF3D-4811-B04E-546C4756EB87}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2851,7 +2851,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1A4633F9-2E8B-4BB2-8A1F-2507DF00035D}" type="CELLRANGE">
+                    <a:fld id="{B038AEF5-0398-44C9-92E8-19C38A4BF320}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2884,7 +2884,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{39F347E9-CF0D-4912-8994-EC60E0D36E6D}" type="CELLRANGE">
+                    <a:fld id="{3575DAEB-8B5A-431F-B081-585C84BDCCC7}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2917,7 +2917,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{503079EC-D7C3-460B-9213-D1BBEF70B879}" type="CELLRANGE">
+                    <a:fld id="{40C1EEC8-C607-432C-A0DB-AFA24DC98559}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2950,7 +2950,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BACE2052-FBE7-4D54-B3FC-C76D2EB7A384}" type="CELLRANGE">
+                    <a:fld id="{37F78C04-A97B-433E-9E55-1B7487CE9918}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2983,7 +2983,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1FB12799-C0F4-486A-9F32-1ABC91186630}" type="CELLRANGE">
+                    <a:fld id="{56BCF6D7-FC58-42C5-B753-10B9B3D0EE1A}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3016,7 +3016,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{39AAB330-B47C-4321-93CF-77986A9231BD}" type="CELLRANGE">
+                    <a:fld id="{8F367F47-E08B-4496-B42B-2A431C81F64E}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3049,7 +3049,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5413626C-E8DE-42A9-84CA-2B3872B3C6B6}" type="CELLRANGE">
+                    <a:fld id="{8F6F6BB4-F335-47BF-9A72-732524678611}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3082,7 +3082,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0348D752-F729-47C5-9C1F-D9FB1F38E3F4}" type="CELLRANGE">
+                    <a:fld id="{E0098B85-6FA5-462C-A8E0-0FC0A694FC85}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3115,7 +3115,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{224E2725-EF04-4D78-887F-E429D3F9A531}" type="CELLRANGE">
+                    <a:fld id="{9BFEF751-BEE3-475F-8628-A7499071805C}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3337,7 +3337,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{27542261-10B3-4799-87F9-B5FB25148E35}" type="CELLRANGE">
+                    <a:fld id="{6487D7ED-FC6F-4BB5-8ADA-D285B7EEFBCD}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3558,10 +3558,10 @@
                     <c:v>메인 화면</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>로그인 화면</c:v>
+                    <c:v>바코드 인식 화면</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>로그인 기능</c:v>
+                    <c:v>바코드 인식 기능</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>식재료 입력 화면</c:v>
@@ -5046,7 +5046,7 @@
               <a:ea typeface="맑은 고딕"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>나만의냉장고 프로젝트 (9월 14일~11월 14일) [진행률: 12%]</a:t>
+            <a:t>나만의냉장고 프로젝트 (9월 14일~11월 14일) [진행률: 25%]</a:t>
           </a:fld>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -7198,7 +7198,7 @@
   <dimension ref="A2:Z26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7229,11 +7229,11 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E2" s="37" t="str">
         <f>D2&amp;" ("&amp;TEXT(E6,"m월 d일")&amp;"~"&amp;TEXT(H17,"m월 d일")&amp;") [진행률: "&amp;TEXT(N3,"0%")&amp;"]"</f>
-        <v>나만의냉장고 프로젝트 (9월 14일~11월 14일) [진행률: 12%]</v>
+        <v>나만의냉장고 프로젝트 (9월 14일~11월 14일) [진행률: 25%]</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -7244,14 +7244,14 @@
       <c r="C3" s="1"/>
       <c r="D3" s="6">
         <f ca="1">TODAY()</f>
-        <v>45190</v>
+        <v>45197</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="N3" s="36">
         <f>SUMPRODUCT(N6:N14,L6:L14)/SUM(L6:L14)</f>
-        <v>0.11904761904761907</v>
+        <v>0.24523809523809526</v>
       </c>
       <c r="Y3" s="38" t="s">
         <v>17</v>
@@ -7334,7 +7334,7 @@
       </c>
       <c r="R5" s="15" t="str">
         <f ca="1">"오늘 ("&amp;TEXT(R6,"m월 d일")&amp;")"</f>
-        <v>오늘 (9월 21일)</v>
+        <v>오늘 (9월 28일)</v>
       </c>
       <c r="S5" s="14" t="s">
         <v>13</v>
@@ -7403,7 +7403,7 @@
       </c>
       <c r="R6" s="24">
         <f ca="1">D3</f>
-        <v>45190</v>
+        <v>45197</v>
       </c>
       <c r="S6" s="5">
         <f t="shared" ref="S6:S24" si="1">IF(A6="",NA(),19.5-ROW()+6)</f>
@@ -7428,11 +7428,11 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="26" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="45">
@@ -7477,7 +7477,7 @@
       </c>
       <c r="R7" s="24">
         <f ca="1">R6</f>
-        <v>45190</v>
+        <v>45197</v>
       </c>
       <c r="S7" s="5">
         <f t="shared" si="1"/>
@@ -7502,11 +7502,11 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="18" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="43">
@@ -7539,11 +7539,11 @@
         <v>45195</v>
       </c>
       <c r="N8" s="22">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O8" s="23">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Q8" s="5">
         <f t="shared" si="0"/>
@@ -7551,7 +7551,7 @@
       </c>
       <c r="R8" s="24">
         <f t="shared" ref="R8:R11" ca="1" si="11">R7</f>
-        <v>45190</v>
+        <v>45197</v>
       </c>
       <c r="S8" s="5">
         <f t="shared" si="1"/>
@@ -7571,16 +7571,16 @@
       </c>
       <c r="W8" s="47" t="str">
         <f t="shared" si="10"/>
-        <v>로그인 화면</v>
+        <v>바코드 인식 화면</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="26" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="26" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="45">
@@ -7613,11 +7613,11 @@
         <v>45201</v>
       </c>
       <c r="N9" s="30">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="O9" s="31">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="Q9" s="5">
         <f>IF(A9="",NA(),19.1-ROW()+6)</f>
@@ -7625,7 +7625,7 @@
       </c>
       <c r="R9" s="24">
         <f t="shared" ca="1" si="11"/>
-        <v>45190</v>
+        <v>45197</v>
       </c>
       <c r="S9" s="5">
         <f>IF(A9="",NA(),19.5-ROW()+6)</f>
@@ -7645,16 +7645,16 @@
       </c>
       <c r="W9" s="47" t="str">
         <f>IF(B9="",C9,C9&amp;" ["&amp;B9&amp;"]")</f>
-        <v>로그인 기능</v>
+        <v>바코드 인식 기능</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="43">
@@ -7699,7 +7699,7 @@
       </c>
       <c r="R10" s="24">
         <f t="shared" ca="1" si="11"/>
-        <v>45190</v>
+        <v>45197</v>
       </c>
       <c r="S10" s="5">
         <f>IF(A10="",NA(),19.5-ROW()+6)</f>
@@ -7724,11 +7724,11 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="26" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="45">
@@ -7773,7 +7773,7 @@
       </c>
       <c r="R11" s="24">
         <f t="shared" ca="1" si="11"/>
-        <v>45190</v>
+        <v>45197</v>
       </c>
       <c r="S11" s="5">
         <f>IF(A11="",NA(),19.5-ROW()+6)</f>
@@ -7798,11 +7798,11 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="43">
@@ -7847,7 +7847,7 @@
       </c>
       <c r="R12" s="24">
         <f ca="1">R11</f>
-        <v>45190</v>
+        <v>45197</v>
       </c>
       <c r="S12" s="5">
         <f>IF(A12="",NA(),19.5-ROW()+6)</f>
@@ -7872,11 +7872,11 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="45">
@@ -7921,7 +7921,7 @@
       </c>
       <c r="R13" s="24">
         <f ca="1">R12</f>
-        <v>45190</v>
+        <v>45197</v>
       </c>
       <c r="S13" s="5">
         <f>IF(A13="",NA(),19.5-ROW()+6)</f>
@@ -7946,11 +7946,11 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="43">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="R14" s="24">
         <f ca="1">R13</f>
-        <v>45190</v>
+        <v>45197</v>
       </c>
       <c r="S14" s="5">
         <f t="shared" si="1"/>
@@ -8020,11 +8020,11 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="45">
@@ -8069,7 +8069,7 @@
       </c>
       <c r="R15" s="24">
         <f t="shared" ref="R15:R25" ca="1" si="14">R14</f>
-        <v>45190</v>
+        <v>45197</v>
       </c>
       <c r="S15" s="5">
         <f t="shared" si="1"/>
@@ -8094,11 +8094,11 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" s="18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="43">
@@ -8143,7 +8143,7 @@
       </c>
       <c r="R16" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45190</v>
+        <v>45197</v>
       </c>
       <c r="S16" s="5">
         <f t="shared" si="1"/>
@@ -8168,11 +8168,11 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A17" s="26" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="45">
@@ -8217,7 +8217,7 @@
       </c>
       <c r="R17" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45190</v>
+        <v>45197</v>
       </c>
       <c r="S17" s="5">
         <f t="shared" si="1"/>
@@ -8277,7 +8277,7 @@
       </c>
       <c r="R18" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45190</v>
+        <v>45197</v>
       </c>
       <c r="S18" s="5" t="e">
         <f t="shared" si="1"/>
@@ -8337,7 +8337,7 @@
       </c>
       <c r="R19" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45190</v>
+        <v>45197</v>
       </c>
       <c r="S19" s="5" t="e">
         <f t="shared" si="1"/>
@@ -8397,7 +8397,7 @@
       </c>
       <c r="R20" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45190</v>
+        <v>45197</v>
       </c>
       <c r="S20" s="5" t="e">
         <f t="shared" si="1"/>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="R21" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45190</v>
+        <v>45197</v>
       </c>
       <c r="S21" s="5" t="e">
         <f t="shared" si="1"/>
@@ -8517,7 +8517,7 @@
       </c>
       <c r="R22" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45190</v>
+        <v>45197</v>
       </c>
       <c r="S22" s="5" t="e">
         <f t="shared" si="1"/>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="R23" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45190</v>
+        <v>45197</v>
       </c>
       <c r="S23" s="5" t="e">
         <f t="shared" si="1"/>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="R24" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45190</v>
+        <v>45197</v>
       </c>
       <c r="S24" s="5" t="e">
         <f t="shared" si="1"/>
@@ -8696,7 +8696,7 @@
       </c>
       <c r="R25" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45190</v>
+        <v>45197</v>
       </c>
       <c r="S25" s="5">
         <v>0.5</v>

--- a/CE_Capstone_2/엑셀-간트차트-자동화-양식-v1.1.xlsx
+++ b/CE_Capstone_2/엑셀-간트차트-자동화-양식-v1.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinj\Development\Dongguk4\CE_Capstone_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0755CC40-803E-478C-A76A-AB339C6D047F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C2A192-1544-4396-8228-4158D1BDE1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{7453B445-7095-4582-ACAE-BBB40EA0D2E1}"/>
   </bookViews>
@@ -785,19 +785,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>4.8000000000000007</c:v>
+                    <c:v>5.0999999999999996</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.2</c:v>
+                    <c:v>0.3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.8</c:v>
+                    <c:v>2.4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.5</c:v>
+                    <c:v>6</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>1.6</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0</c:v>
@@ -854,19 +854,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>4.8000000000000007</c:v>
+                    <c:v>5.0999999999999996</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.2</c:v>
+                    <c:v>0.3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.8</c:v>
+                    <c:v>2.4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.5</c:v>
+                    <c:v>6</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>1.6</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>0</c:v>
@@ -1133,27 +1133,6 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1247,27 +1226,6 @@
                   <c:pt idx="12">
                     <c:v>0</c:v>
                   </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>0</c:v>
-                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -1314,27 +1272,6 @@
                     <c:v>6</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
                     <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
@@ -2109,64 +2046,64 @@
                 <c:formatCode>mm"월"\ dd"일"</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>45197</c:v>
+                  <c:v>45204</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45197</c:v>
+                  <c:v>45204</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45197</c:v>
+                  <c:v>45204</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45197</c:v>
+                  <c:v>45204</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45197</c:v>
+                  <c:v>45204</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45197</c:v>
+                  <c:v>45204</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45197</c:v>
+                  <c:v>45204</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45197</c:v>
+                  <c:v>45204</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45197</c:v>
+                  <c:v>45204</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45197</c:v>
+                  <c:v>45204</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45197</c:v>
+                  <c:v>45204</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45197</c:v>
+                  <c:v>45204</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45197</c:v>
+                  <c:v>45204</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45197</c:v>
+                  <c:v>45204</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45197</c:v>
+                  <c:v>45204</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45197</c:v>
+                  <c:v>45204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45197</c:v>
+                  <c:v>45204</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45197</c:v>
+                  <c:v>45204</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45197</c:v>
+                  <c:v>45204</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45197</c:v>
+                  <c:v>45204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2248,7 +2185,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>오늘 (9월 28일)</c:v>
+                    <c:v>오늘 (10월 5일)</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2786,8 +2723,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{602B1CDA-B97B-45C5-B38A-17EDFA6737B4}" type="CELLRANGE">
-                      <a:rPr lang="ko-KR" altLang="en-US"/>
+                    <a:fld id="{0FE219DF-2631-4F32-BB26-41642AF04B83}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2818,7 +2755,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA394EEE-AF3D-4811-B04E-546C4756EB87}" type="CELLRANGE">
+                    <a:fld id="{8C472AB9-3929-42C8-9FAC-88C0FBC370DB}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2851,7 +2788,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B038AEF5-0398-44C9-92E8-19C38A4BF320}" type="CELLRANGE">
+                    <a:fld id="{39E18C51-3E1E-4D2F-AC1E-ACE0A2FB4FAB}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2884,7 +2821,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3575DAEB-8B5A-431F-B081-585C84BDCCC7}" type="CELLRANGE">
+                    <a:fld id="{99FE6396-7B62-4646-A2D4-FC5B72AE4A92}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2917,7 +2854,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40C1EEC8-C607-432C-A0DB-AFA24DC98559}" type="CELLRANGE">
+                    <a:fld id="{3D606121-67C6-4CA3-94A6-67B82B92B121}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2950,7 +2887,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{37F78C04-A97B-433E-9E55-1B7487CE9918}" type="CELLRANGE">
+                    <a:fld id="{ECC2D736-E121-45DA-9220-D7372FCA402F}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2983,7 +2920,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{56BCF6D7-FC58-42C5-B753-10B9B3D0EE1A}" type="CELLRANGE">
+                    <a:fld id="{61FA4B1F-72D6-42BB-8927-3B749C6772EC}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3016,7 +2953,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8F367F47-E08B-4496-B42B-2A431C81F64E}" type="CELLRANGE">
+                    <a:fld id="{1DC7BE3B-6E2A-48CC-AE11-93F83EA7ADD0}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3049,7 +2986,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8F6F6BB4-F335-47BF-9A72-732524678611}" type="CELLRANGE">
+                    <a:fld id="{D26D5B28-4D35-423E-AD1A-3FCFF3A1F1D5}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3082,7 +3019,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E0098B85-6FA5-462C-A8E0-0FC0A694FC85}" type="CELLRANGE">
+                    <a:fld id="{65E5BC7A-A313-49E2-BA62-01F5D727941F}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3115,7 +3052,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9BFEF751-BEE3-475F-8628-A7499071805C}" type="CELLRANGE">
+                    <a:fld id="{49283CD1-E1D6-46E5-BBB6-B8E2503DDEAC}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3337,11 +3274,6 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6487D7ED-FC6F-4BB5-8ADA-D285B7EEFBCD}" type="CELLRANGE">
-                      <a:rPr lang="ko-KR" altLang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
                     <a:endParaRPr lang="ko-KR" altLang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -3354,7 +3286,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -3449,27 +3380,6 @@
                   <c:v>45244</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5046,7 +4956,7 @@
               <a:ea typeface="맑은 고딕"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>나만의냉장고 프로젝트 (9월 14일~11월 14일) [진행률: 25%]</a:t>
+            <a:t>나만의냉장고 프로젝트 (9월 14일~11월 14일) [진행률: 37%]</a:t>
           </a:fld>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -7198,7 +7108,7 @@
   <dimension ref="A2:Z26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+      <selection activeCell="Y44" sqref="Y44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7233,7 +7143,7 @@
       </c>
       <c r="E2" s="37" t="str">
         <f>D2&amp;" ("&amp;TEXT(E6,"m월 d일")&amp;"~"&amp;TEXT(H17,"m월 d일")&amp;") [진행률: "&amp;TEXT(N3,"0%")&amp;"]"</f>
-        <v>나만의냉장고 프로젝트 (9월 14일~11월 14일) [진행률: 25%]</v>
+        <v>나만의냉장고 프로젝트 (9월 14일~11월 14일) [진행률: 37%]</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -7244,14 +7154,14 @@
       <c r="C3" s="1"/>
       <c r="D3" s="6">
         <f ca="1">TODAY()</f>
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="N3" s="36">
         <f>SUMPRODUCT(N6:N14,L6:L14)/SUM(L6:L14)</f>
-        <v>0.24523809523809526</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="Y3" s="38" t="s">
         <v>17</v>
@@ -7334,7 +7244,7 @@
       </c>
       <c r="R5" s="15" t="str">
         <f ca="1">"오늘 ("&amp;TEXT(R6,"m월 d일")&amp;")"</f>
-        <v>오늘 (9월 28일)</v>
+        <v>오늘 (10월 5일)</v>
       </c>
       <c r="S5" s="14" t="s">
         <v>13</v>
@@ -7391,11 +7301,11 @@
         <v>45189</v>
       </c>
       <c r="N6" s="22">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="O6" s="23">
         <f>L6*N6</f>
-        <v>4.8000000000000007</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Q6" s="5">
         <f t="shared" ref="Q6:Q15" si="0">IF(A6="",NA(),19.1-ROW()+6)</f>
@@ -7403,7 +7313,7 @@
       </c>
       <c r="R6" s="24">
         <f ca="1">D3</f>
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="S6" s="5">
         <f t="shared" ref="S6:S24" si="1">IF(A6="",NA(),19.5-ROW()+6)</f>
@@ -7465,11 +7375,11 @@
         <v>45191</v>
       </c>
       <c r="N7" s="30">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="O7" s="31">
         <f t="shared" ref="O7:O25" si="7">L7*N7</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Q7" s="5">
         <f t="shared" si="0"/>
@@ -7477,7 +7387,7 @@
       </c>
       <c r="R7" s="24">
         <f ca="1">R6</f>
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="S7" s="5">
         <f t="shared" si="1"/>
@@ -7539,11 +7449,11 @@
         <v>45195</v>
       </c>
       <c r="N8" s="22">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="O8" s="23">
         <f t="shared" si="7"/>
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q8" s="5">
         <f t="shared" si="0"/>
@@ -7551,7 +7461,7 @@
       </c>
       <c r="R8" s="24">
         <f t="shared" ref="R8:R11" ca="1" si="11">R7</f>
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="S8" s="5">
         <f t="shared" si="1"/>
@@ -7613,11 +7523,11 @@
         <v>45201</v>
       </c>
       <c r="N9" s="30">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O9" s="31">
         <f t="shared" si="7"/>
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="Q9" s="5">
         <f>IF(A9="",NA(),19.1-ROW()+6)</f>
@@ -7625,7 +7535,7 @@
       </c>
       <c r="R9" s="24">
         <f t="shared" ca="1" si="11"/>
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="S9" s="5">
         <f>IF(A9="",NA(),19.5-ROW()+6)</f>
@@ -7687,11 +7597,11 @@
         <v>45203</v>
       </c>
       <c r="N10" s="22">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O10" s="23">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Q10" s="5">
         <f>IF(A10="",NA(),19.1-ROW()+6)</f>
@@ -7699,7 +7609,7 @@
       </c>
       <c r="R10" s="24">
         <f t="shared" ca="1" si="11"/>
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="S10" s="5">
         <f>IF(A10="",NA(),19.5-ROW()+6)</f>
@@ -7773,7 +7683,7 @@
       </c>
       <c r="R11" s="24">
         <f t="shared" ca="1" si="11"/>
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="S11" s="5">
         <f>IF(A11="",NA(),19.5-ROW()+6)</f>
@@ -7847,7 +7757,7 @@
       </c>
       <c r="R12" s="24">
         <f ca="1">R11</f>
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="S12" s="5">
         <f>IF(A12="",NA(),19.5-ROW()+6)</f>
@@ -7921,7 +7831,7 @@
       </c>
       <c r="R13" s="24">
         <f ca="1">R12</f>
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="S13" s="5">
         <f>IF(A13="",NA(),19.5-ROW()+6)</f>
@@ -7995,7 +7905,7 @@
       </c>
       <c r="R14" s="24">
         <f ca="1">R13</f>
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="S14" s="5">
         <f t="shared" si="1"/>
@@ -8069,7 +7979,7 @@
       </c>
       <c r="R15" s="24">
         <f t="shared" ref="R15:R25" ca="1" si="14">R14</f>
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="S15" s="5">
         <f t="shared" si="1"/>
@@ -8143,7 +8053,7 @@
       </c>
       <c r="R16" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="S16" s="5">
         <f t="shared" si="1"/>
@@ -8217,7 +8127,7 @@
       </c>
       <c r="R17" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="S17" s="5">
         <f t="shared" si="1"/>
@@ -8277,7 +8187,7 @@
       </c>
       <c r="R18" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="S18" s="5" t="e">
         <f t="shared" si="1"/>
@@ -8307,25 +8217,13 @@
       <c r="D19" s="27"/>
       <c r="E19" s="45"/>
       <c r="F19" s="46"/>
-      <c r="G19" s="34">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="35">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="35"/>
       <c r="I19" s="42"/>
       <c r="J19" s="28"/>
       <c r="K19" s="29"/>
-      <c r="L19" s="34">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="35">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="L19" s="34"/>
+      <c r="M19" s="35"/>
       <c r="N19" s="30"/>
       <c r="O19" s="31">
         <f t="shared" si="7"/>
@@ -8337,7 +8235,7 @@
       </c>
       <c r="R19" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="S19" s="5" t="e">
         <f t="shared" si="1"/>
@@ -8367,25 +8265,13 @@
       <c r="D20" s="19"/>
       <c r="E20" s="43"/>
       <c r="F20" s="44"/>
-      <c r="G20" s="32">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
       <c r="I20" s="41"/>
       <c r="J20" s="20"/>
       <c r="K20" s="21"/>
-      <c r="L20" s="32">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="33">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="L20" s="32"/>
+      <c r="M20" s="33"/>
       <c r="N20" s="22"/>
       <c r="O20" s="23">
         <f t="shared" si="7"/>
@@ -8397,7 +8283,7 @@
       </c>
       <c r="R20" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="S20" s="5" t="e">
         <f t="shared" si="1"/>
@@ -8427,25 +8313,13 @@
       <c r="D21" s="27"/>
       <c r="E21" s="45"/>
       <c r="F21" s="46"/>
-      <c r="G21" s="34">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="35">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="42"/>
       <c r="J21" s="28"/>
       <c r="K21" s="29"/>
-      <c r="L21" s="34">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="35">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="L21" s="34"/>
+      <c r="M21" s="35"/>
       <c r="N21" s="30"/>
       <c r="O21" s="31">
         <f t="shared" si="7"/>
@@ -8457,7 +8331,7 @@
       </c>
       <c r="R21" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="S21" s="5" t="e">
         <f t="shared" si="1"/>
@@ -8487,25 +8361,13 @@
       <c r="D22" s="19"/>
       <c r="E22" s="43"/>
       <c r="F22" s="44"/>
-      <c r="G22" s="32">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
       <c r="I22" s="41"/>
       <c r="J22" s="20"/>
       <c r="K22" s="21"/>
-      <c r="L22" s="32">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="33">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="L22" s="32"/>
+      <c r="M22" s="33"/>
       <c r="N22" s="22"/>
       <c r="O22" s="23">
         <f t="shared" si="7"/>
@@ -8517,7 +8379,7 @@
       </c>
       <c r="R22" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="S22" s="5" t="e">
         <f t="shared" si="1"/>
@@ -8547,25 +8409,13 @@
       <c r="D23" s="27"/>
       <c r="E23" s="45"/>
       <c r="F23" s="46"/>
-      <c r="G23" s="34">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="35">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
+      <c r="G23" s="34"/>
+      <c r="H23" s="35"/>
       <c r="I23" s="42"/>
       <c r="J23" s="28"/>
       <c r="K23" s="29"/>
-      <c r="L23" s="34">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="35">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="L23" s="34"/>
+      <c r="M23" s="35"/>
       <c r="N23" s="30"/>
       <c r="O23" s="31">
         <f t="shared" si="7"/>
@@ -8577,7 +8427,7 @@
       </c>
       <c r="R23" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="S23" s="5" t="e">
         <f t="shared" si="1"/>
@@ -8607,25 +8457,13 @@
       <c r="D24" s="19"/>
       <c r="E24" s="43"/>
       <c r="F24" s="44"/>
-      <c r="G24" s="32">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
       <c r="I24" s="41"/>
       <c r="J24" s="20"/>
       <c r="K24" s="21"/>
-      <c r="L24" s="32">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="33">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="L24" s="32"/>
+      <c r="M24" s="33"/>
       <c r="N24" s="22"/>
       <c r="O24" s="23">
         <f t="shared" si="7"/>
@@ -8637,7 +8475,7 @@
       </c>
       <c r="R24" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="S24" s="5" t="e">
         <f t="shared" si="1"/>
@@ -8667,25 +8505,13 @@
       <c r="D25" s="27"/>
       <c r="E25" s="45"/>
       <c r="F25" s="46"/>
-      <c r="G25" s="34">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="35">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
+      <c r="G25" s="34"/>
+      <c r="H25" s="35"/>
       <c r="I25" s="42"/>
       <c r="J25" s="28"/>
       <c r="K25" s="29"/>
-      <c r="L25" s="34">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="35">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="L25" s="34"/>
+      <c r="M25" s="35"/>
       <c r="N25" s="30"/>
       <c r="O25" s="31">
         <f t="shared" si="7"/>
@@ -8696,7 +8522,7 @@
       </c>
       <c r="R25" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="S25" s="5">
         <v>0.5</v>

--- a/CE_Capstone_2/엑셀-간트차트-자동화-양식-v1.1.xlsx
+++ b/CE_Capstone_2/엑셀-간트차트-자동화-양식-v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinj\Development\Dongguk4\CE_Capstone_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C2A192-1544-4396-8228-4158D1BDE1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D858C28-5FD8-4C9B-97AE-0C2D92245A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{7453B445-7095-4582-ACAE-BBB40EA0D2E1}"/>
   </bookViews>
@@ -788,7 +788,7 @@
                     <c:v>5.0999999999999996</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.3</c:v>
+                    <c:v>0.6</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>2.4</c:v>
@@ -803,10 +803,10 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>6.3</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>3.5</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>0</c:v>
@@ -857,7 +857,7 @@
                     <c:v>5.0999999999999996</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.3</c:v>
+                    <c:v>0.6</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>2.4</c:v>
@@ -872,10 +872,10 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>6.3</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>3.5</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>0</c:v>
@@ -2046,64 +2046,64 @@
                 <c:formatCode>mm"월"\ dd"일"</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>45204</c:v>
+                  <c:v>45211</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45204</c:v>
+                  <c:v>45211</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45204</c:v>
+                  <c:v>45211</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45204</c:v>
+                  <c:v>45211</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45204</c:v>
+                  <c:v>45211</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45204</c:v>
+                  <c:v>45211</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45204</c:v>
+                  <c:v>45211</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45204</c:v>
+                  <c:v>45211</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45204</c:v>
+                  <c:v>45211</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45204</c:v>
+                  <c:v>45211</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45204</c:v>
+                  <c:v>45211</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45204</c:v>
+                  <c:v>45211</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45204</c:v>
+                  <c:v>45211</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45204</c:v>
+                  <c:v>45211</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45204</c:v>
+                  <c:v>45211</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45204</c:v>
+                  <c:v>45211</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45204</c:v>
+                  <c:v>45211</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45204</c:v>
+                  <c:v>45211</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45204</c:v>
+                  <c:v>45211</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45204</c:v>
+                  <c:v>45211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2185,7 +2185,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>오늘 (10월 5일)</c:v>
+                    <c:v>오늘 (10월 12일)</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2723,7 +2723,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0FE219DF-2631-4F32-BB26-41642AF04B83}" type="CELLRANGE">
+                    <a:fld id="{89BFCC92-9D06-44DB-863D-7D790DDCA58B}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ko-KR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2755,7 +2755,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C472AB9-3929-42C8-9FAC-88C0FBC370DB}" type="CELLRANGE">
+                    <a:fld id="{02A36589-6F2F-4021-BA2F-3E398605AEBB}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2788,7 +2788,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{39E18C51-3E1E-4D2F-AC1E-ACE0A2FB4FAB}" type="CELLRANGE">
+                    <a:fld id="{B5D3C7BA-3D6D-4F4D-A101-D193C2C1A4B4}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2821,7 +2821,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{99FE6396-7B62-4646-A2D4-FC5B72AE4A92}" type="CELLRANGE">
+                    <a:fld id="{D4F88C1C-9B93-4430-B956-65CFF621661D}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2854,7 +2854,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3D606121-67C6-4CA3-94A6-67B82B92B121}" type="CELLRANGE">
+                    <a:fld id="{6915FF02-1615-4C2D-A04B-7B4950E16CCE}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2887,7 +2887,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ECC2D736-E121-45DA-9220-D7372FCA402F}" type="CELLRANGE">
+                    <a:fld id="{CCE4D330-43A8-4E4A-BE3B-F9854B123265}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2920,7 +2920,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{61FA4B1F-72D6-42BB-8927-3B749C6772EC}" type="CELLRANGE">
+                    <a:fld id="{A678CAB7-E478-44FD-A56B-E481DEE3B021}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2953,7 +2953,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1DC7BE3B-6E2A-48CC-AE11-93F83EA7ADD0}" type="CELLRANGE">
+                    <a:fld id="{99088F53-681A-4A5D-978B-C35394879B21}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2986,7 +2986,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D26D5B28-4D35-423E-AD1A-3FCFF3A1F1D5}" type="CELLRANGE">
+                    <a:fld id="{18A475D5-C139-4830-8919-16BD187805AF}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3019,7 +3019,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65E5BC7A-A313-49E2-BA62-01F5D727941F}" type="CELLRANGE">
+                    <a:fld id="{020296C0-C468-404F-A173-8AAF5DCF5852}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3052,7 +3052,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{49283CD1-E1D6-46E5-BBB6-B8E2503DDEAC}" type="CELLRANGE">
+                    <a:fld id="{CE47FCAA-B72A-48A3-97E1-54FA8ADBEFB5}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4956,7 +4956,7 @@
               <a:ea typeface="맑은 고딕"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>나만의냉장고 프로젝트 (9월 14일~11월 14일) [진행률: 37%]</a:t>
+            <a:t>나만의냉장고 프로젝트 (9월 14일~11월 14일) [진행률: 61%]</a:t>
           </a:fld>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -7107,8 +7107,8 @@
   </sheetPr>
   <dimension ref="A2:Z26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y44" sqref="Y44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="E2" s="37" t="str">
         <f>D2&amp;" ("&amp;TEXT(E6,"m월 d일")&amp;"~"&amp;TEXT(H17,"m월 d일")&amp;") [진행률: "&amp;TEXT(N3,"0%")&amp;"]"</f>
-        <v>나만의냉장고 프로젝트 (9월 14일~11월 14일) [진행률: 37%]</v>
+        <v>나만의냉장고 프로젝트 (9월 14일~11월 14일) [진행률: 61%]</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -7154,14 +7154,14 @@
       <c r="C3" s="1"/>
       <c r="D3" s="6">
         <f ca="1">TODAY()</f>
-        <v>45204</v>
+        <v>45211</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="N3" s="36">
         <f>SUMPRODUCT(N6:N14,L6:L14)/SUM(L6:L14)</f>
-        <v>0.36666666666666664</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="Y3" s="38" t="s">
         <v>17</v>
@@ -7244,7 +7244,7 @@
       </c>
       <c r="R5" s="15" t="str">
         <f ca="1">"오늘 ("&amp;TEXT(R6,"m월 d일")&amp;")"</f>
-        <v>오늘 (10월 5일)</v>
+        <v>오늘 (10월 12일)</v>
       </c>
       <c r="S5" s="14" t="s">
         <v>13</v>
@@ -7313,7 +7313,7 @@
       </c>
       <c r="R6" s="24">
         <f ca="1">D3</f>
-        <v>45204</v>
+        <v>45211</v>
       </c>
       <c r="S6" s="5">
         <f t="shared" ref="S6:S24" si="1">IF(A6="",NA(),19.5-ROW()+6)</f>
@@ -7375,11 +7375,11 @@
         <v>45191</v>
       </c>
       <c r="N7" s="30">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="O7" s="31">
         <f t="shared" ref="O7:O25" si="7">L7*N7</f>
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="Q7" s="5">
         <f t="shared" si="0"/>
@@ -7387,7 +7387,7 @@
       </c>
       <c r="R7" s="24">
         <f ca="1">R6</f>
-        <v>45204</v>
+        <v>45211</v>
       </c>
       <c r="S7" s="5">
         <f t="shared" si="1"/>
@@ -7461,7 +7461,7 @@
       </c>
       <c r="R8" s="24">
         <f t="shared" ref="R8:R11" ca="1" si="11">R7</f>
-        <v>45204</v>
+        <v>45211</v>
       </c>
       <c r="S8" s="5">
         <f t="shared" si="1"/>
@@ -7535,7 +7535,7 @@
       </c>
       <c r="R9" s="24">
         <f t="shared" ca="1" si="11"/>
-        <v>45204</v>
+        <v>45211</v>
       </c>
       <c r="S9" s="5">
         <f>IF(A9="",NA(),19.5-ROW()+6)</f>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="R10" s="24">
         <f t="shared" ca="1" si="11"/>
-        <v>45204</v>
+        <v>45211</v>
       </c>
       <c r="S10" s="5">
         <f>IF(A10="",NA(),19.5-ROW()+6)</f>
@@ -7683,7 +7683,7 @@
       </c>
       <c r="R11" s="24">
         <f t="shared" ca="1" si="11"/>
-        <v>45204</v>
+        <v>45211</v>
       </c>
       <c r="S11" s="5">
         <f>IF(A11="",NA(),19.5-ROW()+6)</f>
@@ -7745,11 +7745,11 @@
         <v>45218</v>
       </c>
       <c r="N12" s="22">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O12" s="23">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="Q12" s="5">
         <f>IF(A12="",NA(),19.1-ROW()+6)</f>
@@ -7757,7 +7757,7 @@
       </c>
       <c r="R12" s="24">
         <f ca="1">R11</f>
-        <v>45204</v>
+        <v>45211</v>
       </c>
       <c r="S12" s="5">
         <f>IF(A12="",NA(),19.5-ROW()+6)</f>
@@ -7819,11 +7819,11 @@
         <v>45223</v>
       </c>
       <c r="N13" s="30">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O13" s="31">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Q13" s="5">
         <f>IF(A13="",NA(),19.1-ROW()+6)</f>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="R13" s="24">
         <f ca="1">R12</f>
-        <v>45204</v>
+        <v>45211</v>
       </c>
       <c r="S13" s="5">
         <f>IF(A13="",NA(),19.5-ROW()+6)</f>
@@ -7905,7 +7905,7 @@
       </c>
       <c r="R14" s="24">
         <f ca="1">R13</f>
-        <v>45204</v>
+        <v>45211</v>
       </c>
       <c r="S14" s="5">
         <f t="shared" si="1"/>
@@ -7959,11 +7959,11 @@
         <v>5</v>
       </c>
       <c r="L15" s="34">
-        <f t="shared" ref="L15:L25" si="12">M15-J15</f>
+        <f t="shared" ref="L15:L18" si="12">M15-J15</f>
         <v>7</v>
       </c>
       <c r="M15" s="35">
-        <f t="shared" ref="M15:M25" si="13">WORKDAY.INTL(J15,K15,1)</f>
+        <f t="shared" ref="M15:M18" si="13">WORKDAY.INTL(J15,K15,1)</f>
         <v>45232</v>
       </c>
       <c r="N15" s="30">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="R15" s="24">
         <f t="shared" ref="R15:R25" ca="1" si="14">R14</f>
-        <v>45204</v>
+        <v>45211</v>
       </c>
       <c r="S15" s="5">
         <f t="shared" si="1"/>
@@ -8018,11 +8018,11 @@
         <v>4</v>
       </c>
       <c r="G16" s="32">
-        <f t="shared" ref="G16:G25" si="15">H16-E16</f>
+        <f t="shared" ref="G16:G18" si="15">H16-E16</f>
         <v>6</v>
       </c>
       <c r="H16" s="33">
-        <f t="shared" ref="H16:H25" si="16">WORKDAY.INTL(E16,F16,1)</f>
+        <f t="shared" ref="H16:H18" si="16">WORKDAY.INTL(E16,F16,1)</f>
         <v>45238</v>
       </c>
       <c r="I16" s="41"/>
@@ -8053,7 +8053,7 @@
       </c>
       <c r="R16" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45204</v>
+        <v>45211</v>
       </c>
       <c r="S16" s="5">
         <f t="shared" si="1"/>
@@ -8127,7 +8127,7 @@
       </c>
       <c r="R17" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45204</v>
+        <v>45211</v>
       </c>
       <c r="S17" s="5">
         <f t="shared" si="1"/>
@@ -8187,7 +8187,7 @@
       </c>
       <c r="R18" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45204</v>
+        <v>45211</v>
       </c>
       <c r="S18" s="5" t="e">
         <f t="shared" si="1"/>
@@ -8235,7 +8235,7 @@
       </c>
       <c r="R19" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45204</v>
+        <v>45211</v>
       </c>
       <c r="S19" s="5" t="e">
         <f t="shared" si="1"/>
@@ -8283,7 +8283,7 @@
       </c>
       <c r="R20" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45204</v>
+        <v>45211</v>
       </c>
       <c r="S20" s="5" t="e">
         <f t="shared" si="1"/>
@@ -8331,7 +8331,7 @@
       </c>
       <c r="R21" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45204</v>
+        <v>45211</v>
       </c>
       <c r="S21" s="5" t="e">
         <f t="shared" si="1"/>
@@ -8379,7 +8379,7 @@
       </c>
       <c r="R22" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45204</v>
+        <v>45211</v>
       </c>
       <c r="S22" s="5" t="e">
         <f t="shared" si="1"/>
@@ -8427,7 +8427,7 @@
       </c>
       <c r="R23" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45204</v>
+        <v>45211</v>
       </c>
       <c r="S23" s="5" t="e">
         <f t="shared" si="1"/>
@@ -8475,7 +8475,7 @@
       </c>
       <c r="R24" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45204</v>
+        <v>45211</v>
       </c>
       <c r="S24" s="5" t="e">
         <f t="shared" si="1"/>
@@ -8522,7 +8522,7 @@
       </c>
       <c r="R25" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45204</v>
+        <v>45211</v>
       </c>
       <c r="S25" s="5">
         <v>0.5</v>

--- a/CE_Capstone_2/엑셀-간트차트-자동화-양식-v1.1.xlsx
+++ b/CE_Capstone_2/엑셀-간트차트-자동화-양식-v1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinj\Development\Dongguk4\CE_Capstone_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D858C28-5FD8-4C9B-97AE-0C2D92245A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A9A7D4-4B9B-470D-B5D6-A629A043D55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{7453B445-7095-4582-ACAE-BBB40EA0D2E1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="19416" xr2:uid="{7453B445-7095-4582-ACAE-BBB40EA0D2E1}"/>
   </bookViews>
   <sheets>
     <sheet name="간트차트" sheetId="2" r:id="rId1"/>
@@ -785,7 +785,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>5.0999999999999996</c:v>
+                    <c:v>5.4</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.6</c:v>
@@ -800,13 +800,13 @@
                     <c:v>1.6</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>4.5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6.3</c:v>
+                    <c:v>7.6499999999999995</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3.5</c:v>
+                    <c:v>4</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>0</c:v>
@@ -818,7 +818,7 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0</c:v>
+                    <c:v>0.60000000000000009</c:v>
                   </c:pt>
                   <c:pt idx="12">
                     <c:v>0</c:v>
@@ -854,7 +854,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>5.0999999999999996</c:v>
+                    <c:v>5.4</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0.6</c:v>
@@ -869,13 +869,13 @@
                     <c:v>1.6</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>4.5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6.3</c:v>
+                    <c:v>7.6499999999999995</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3.5</c:v>
+                    <c:v>4</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>0</c:v>
@@ -887,7 +887,7 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0</c:v>
+                    <c:v>0.60000000000000009</c:v>
                   </c:pt>
                   <c:pt idx="12">
                     <c:v>0</c:v>
@@ -2046,64 +2046,64 @@
                 <c:formatCode>mm"월"\ dd"일"</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>45211</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45211</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45211</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45211</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45211</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45211</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45211</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45211</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45211</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45211</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45211</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45211</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45211</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45211</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45211</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45211</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45211</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45211</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45211</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45211</c:v>
+                  <c:v>45232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2185,7 +2185,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>오늘 (10월 12일)</c:v>
+                    <c:v>오늘 (11월 2일)</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2723,8 +2723,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89BFCC92-9D06-44DB-863D-7D790DDCA58B}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ko-KR"/>
+                    <a:fld id="{4B2CE683-1E4B-4EA2-8296-DB638A3BEA43}" type="CELLRANGE">
+                      <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -2755,7 +2755,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{02A36589-6F2F-4021-BA2F-3E398605AEBB}" type="CELLRANGE">
+                    <a:fld id="{EF38E32B-0922-4BEF-BD26-FA4A91B8E285}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2788,7 +2788,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B5D3C7BA-3D6D-4F4D-A101-D193C2C1A4B4}" type="CELLRANGE">
+                    <a:fld id="{56CE2AD5-2EB3-4072-AE53-BFDBA99ACAE0}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2821,7 +2821,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D4F88C1C-9B93-4430-B956-65CFF621661D}" type="CELLRANGE">
+                    <a:fld id="{99FB129C-D77A-4D43-AE6C-555BD9C6271C}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2854,7 +2854,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6915FF02-1615-4C2D-A04B-7B4950E16CCE}" type="CELLRANGE">
+                    <a:fld id="{08C48337-54C4-46CC-B4DF-D65EF004D105}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2887,7 +2887,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CCE4D330-43A8-4E4A-BE3B-F9854B123265}" type="CELLRANGE">
+                    <a:fld id="{9A4671EF-D39C-4FF0-BBC3-E872B20AB1E1}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2920,7 +2920,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A678CAB7-E478-44FD-A56B-E481DEE3B021}" type="CELLRANGE">
+                    <a:fld id="{99879161-AF7A-4C62-AD23-A23506B550A2}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2953,7 +2953,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{99088F53-681A-4A5D-978B-C35394879B21}" type="CELLRANGE">
+                    <a:fld id="{743888A7-7CB6-4433-9197-EABA49F39A99}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2986,7 +2986,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{18A475D5-C139-4830-8919-16BD187805AF}" type="CELLRANGE">
+                    <a:fld id="{D73A629E-8DA6-4230-8457-B98D4482363A}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3019,7 +3019,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{020296C0-C468-404F-A173-8AAF5DCF5852}" type="CELLRANGE">
+                    <a:fld id="{A4F8A201-78D3-423B-A934-E25E6D7CE3E8}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3052,7 +3052,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE47FCAA-B72A-48A3-97E1-54FA8ADBEFB5}" type="CELLRANGE">
+                    <a:fld id="{2E9003A9-606E-4C85-A3E5-F955240E02B5}" type="CELLRANGE">
                       <a:rPr lang="ko-KR" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4276,8 +4276,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="365972" y="7025253"/>
-          <a:ext cx="15208337" cy="8809993"/>
+          <a:off x="365972" y="7249370"/>
+          <a:ext cx="15265113" cy="9108817"/>
           <a:chOff x="276325" y="4039524"/>
           <a:chExt cx="13298160" cy="8855791"/>
         </a:xfrm>
@@ -4956,7 +4956,7 @@
               <a:ea typeface="맑은 고딕"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>나만의냉장고 프로젝트 (9월 14일~11월 14일) [진행률: 61%]</a:t>
+            <a:t>나만의냉장고 프로젝트 (9월 14일~11월 14일) [진행률: 77%]</a:t>
           </a:fld>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -7107,32 +7107,32 @@
   </sheetPr>
   <dimension ref="A2:Z26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="27.58203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="27.08203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="28.69921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.59765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="27.09765625" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="4" customWidth="1"/>
     <col min="6" max="7" width="11.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="3.83203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="3.8984375" style="4" customWidth="1"/>
     <col min="10" max="13" width="11.5" style="4" customWidth="1"/>
     <col min="14" max="14" width="11.5" style="3" customWidth="1"/>
-    <col min="15" max="15" width="8.203125E-2" style="5" customWidth="1"/>
-    <col min="16" max="16" width="13.33203125" style="5" hidden="1" customWidth="1"/>
-    <col min="17" max="23" width="8.203125E-2" style="5" customWidth="1"/>
-    <col min="24" max="24" width="13.33203125" style="5" customWidth="1"/>
-    <col min="25" max="25" width="8.75" style="5" customWidth="1"/>
-    <col min="26" max="26" width="14.08203125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="9.765625E-2" style="5" customWidth="1"/>
+    <col min="16" max="16" width="13.3984375" style="5" hidden="1" customWidth="1"/>
+    <col min="17" max="23" width="9.765625E-2" style="5" customWidth="1"/>
+    <col min="24" max="24" width="13.3984375" style="5" customWidth="1"/>
+    <col min="25" max="25" width="8.69921875" style="5" customWidth="1"/>
+    <col min="26" max="26" width="14.09765625" style="5" customWidth="1"/>
     <col min="27" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:26" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7143,10 +7143,10 @@
       </c>
       <c r="E2" s="37" t="str">
         <f>D2&amp;" ("&amp;TEXT(E6,"m월 d일")&amp;"~"&amp;TEXT(H17,"m월 d일")&amp;") [진행률: "&amp;TEXT(N3,"0%")&amp;"]"</f>
-        <v>나만의냉장고 프로젝트 (9월 14일~11월 14일) [진행률: 61%]</v>
+        <v>나만의냉장고 프로젝트 (9월 14일~11월 14일) [진행률: 77%]</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:26" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -7154,14 +7154,14 @@
       <c r="C3" s="1"/>
       <c r="D3" s="6">
         <f ca="1">TODAY()</f>
-        <v>45211</v>
+        <v>45232</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="N3" s="36">
         <f>SUMPRODUCT(N6:N14,L6:L14)/SUM(L6:L14)</f>
-        <v>0.6071428571428571</v>
+        <v>0.76547619047619042</v>
       </c>
       <c r="Y3" s="38" t="s">
         <v>17</v>
@@ -7170,7 +7170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E4" s="48" t="s">
         <v>3</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="17" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:26" s="17" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -7244,7 +7244,7 @@
       </c>
       <c r="R5" s="15" t="str">
         <f ca="1">"오늘 ("&amp;TEXT(R6,"m월 d일")&amp;")"</f>
-        <v>오늘 (10월 12일)</v>
+        <v>오늘 (11월 2일)</v>
       </c>
       <c r="S5" s="14" t="s">
         <v>13</v>
@@ -7262,7 +7262,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6" s="18" t="s">
         <v>23</v>
       </c>
@@ -7301,11 +7301,11 @@
         <v>45189</v>
       </c>
       <c r="N6" s="22">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O6" s="23">
         <f>L6*N6</f>
-        <v>5.0999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="Q6" s="5">
         <f t="shared" ref="Q6:Q15" si="0">IF(A6="",NA(),19.1-ROW()+6)</f>
@@ -7313,7 +7313,7 @@
       </c>
       <c r="R6" s="24">
         <f ca="1">D3</f>
-        <v>45211</v>
+        <v>45232</v>
       </c>
       <c r="S6" s="5">
         <f t="shared" ref="S6:S24" si="1">IF(A6="",NA(),19.5-ROW()+6)</f>
@@ -7336,7 +7336,7 @@
         <v>음식, 레시피 api</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A7" s="26" t="s">
         <v>34</v>
       </c>
@@ -7387,7 +7387,7 @@
       </c>
       <c r="R7" s="24">
         <f ca="1">R6</f>
-        <v>45211</v>
+        <v>45232</v>
       </c>
       <c r="S7" s="5">
         <f t="shared" si="1"/>
@@ -7410,7 +7410,7 @@
         <v>메인 화면</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A8" s="18" t="s">
         <v>44</v>
       </c>
@@ -7461,7 +7461,7 @@
       </c>
       <c r="R8" s="24">
         <f t="shared" ref="R8:R11" ca="1" si="11">R7</f>
-        <v>45211</v>
+        <v>45232</v>
       </c>
       <c r="S8" s="5">
         <f t="shared" si="1"/>
@@ -7484,7 +7484,7 @@
         <v>바코드 인식 화면</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A9" s="26" t="s">
         <v>45</v>
       </c>
@@ -7535,7 +7535,7 @@
       </c>
       <c r="R9" s="24">
         <f t="shared" ca="1" si="11"/>
-        <v>45211</v>
+        <v>45232</v>
       </c>
       <c r="S9" s="5">
         <f>IF(A9="",NA(),19.5-ROW()+6)</f>
@@ -7558,7 +7558,7 @@
         <v>바코드 인식 기능</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
         <v>26</v>
       </c>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="R10" s="24">
         <f t="shared" ca="1" si="11"/>
-        <v>45211</v>
+        <v>45232</v>
       </c>
       <c r="S10" s="5">
         <f>IF(A10="",NA(),19.5-ROW()+6)</f>
@@ -7632,7 +7632,7 @@
         <v>식재료 입력 화면</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A11" s="26" t="s">
         <v>25</v>
       </c>
@@ -7671,11 +7671,11 @@
         <v>45209</v>
       </c>
       <c r="N11" s="30">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="O11" s="31">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="Q11" s="5">
         <f>IF(A11="",NA(),19.1-ROW()+6)</f>
@@ -7683,7 +7683,7 @@
       </c>
       <c r="R11" s="24">
         <f t="shared" ca="1" si="11"/>
-        <v>45211</v>
+        <v>45232</v>
       </c>
       <c r="S11" s="5">
         <f>IF(A11="",NA(),19.5-ROW()+6)</f>
@@ -7706,7 +7706,7 @@
         <v>DB 식재료 저장 기능</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A12" s="18" t="s">
         <v>30</v>
       </c>
@@ -7745,11 +7745,11 @@
         <v>45218</v>
       </c>
       <c r="N12" s="22">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="O12" s="23">
         <f t="shared" si="7"/>
-        <v>6.3</v>
+        <v>7.6499999999999995</v>
       </c>
       <c r="Q12" s="5">
         <f>IF(A12="",NA(),19.1-ROW()+6)</f>
@@ -7757,7 +7757,7 @@
       </c>
       <c r="R12" s="24">
         <f ca="1">R11</f>
-        <v>45211</v>
+        <v>45232</v>
       </c>
       <c r="S12" s="5">
         <f>IF(A12="",NA(),19.5-ROW()+6)</f>
@@ -7780,7 +7780,7 @@
         <v>식단 추천 알고리즘</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A13" s="26" t="s">
         <v>31</v>
       </c>
@@ -7819,11 +7819,11 @@
         <v>45223</v>
       </c>
       <c r="N13" s="30">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="O13" s="31">
         <f t="shared" si="7"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q13" s="5">
         <f>IF(A13="",NA(),19.1-ROW()+6)</f>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="R13" s="24">
         <f ca="1">R12</f>
-        <v>45211</v>
+        <v>45232</v>
       </c>
       <c r="S13" s="5">
         <f>IF(A13="",NA(),19.5-ROW()+6)</f>
@@ -7854,7 +7854,7 @@
         <v>식단 추천 화면</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A14" s="18" t="s">
         <v>36</v>
       </c>
@@ -7905,7 +7905,7 @@
       </c>
       <c r="R14" s="24">
         <f ca="1">R13</f>
-        <v>45211</v>
+        <v>45232</v>
       </c>
       <c r="S14" s="5">
         <f t="shared" si="1"/>
@@ -7928,7 +7928,7 @@
         <v>설정 화면</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A15" s="26" t="s">
         <v>38</v>
       </c>
@@ -7979,7 +7979,7 @@
       </c>
       <c r="R15" s="24">
         <f t="shared" ref="R15:R25" ca="1" si="14">R14</f>
-        <v>45211</v>
+        <v>45232</v>
       </c>
       <c r="S15" s="5">
         <f t="shared" si="1"/>
@@ -8002,7 +8002,7 @@
         <v>설정 기능</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A16" s="18" t="s">
         <v>40</v>
       </c>
@@ -8053,7 +8053,7 @@
       </c>
       <c r="R16" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45211</v>
+        <v>45232</v>
       </c>
       <c r="S16" s="5">
         <f t="shared" si="1"/>
@@ -8076,7 +8076,7 @@
         <v>식단 추천 업데이트</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A17" s="26" t="s">
         <v>42</v>
       </c>
@@ -8115,11 +8115,11 @@
         <v>45244</v>
       </c>
       <c r="N17" s="30">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O17" s="31">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="Q17" s="5">
         <f t="shared" si="17"/>
@@ -8127,7 +8127,7 @@
       </c>
       <c r="R17" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45211</v>
+        <v>45232</v>
       </c>
       <c r="S17" s="5">
         <f t="shared" si="1"/>
@@ -8150,7 +8150,7 @@
         <v>보고서</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -8187,7 +8187,7 @@
       </c>
       <c r="R18" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45211</v>
+        <v>45232</v>
       </c>
       <c r="S18" s="5" t="e">
         <f t="shared" si="1"/>
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
@@ -8235,7 +8235,7 @@
       </c>
       <c r="R19" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45211</v>
+        <v>45232</v>
       </c>
       <c r="S19" s="5" t="e">
         <f t="shared" si="1"/>
@@ -8258,7 +8258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -8283,7 +8283,7 @@
       </c>
       <c r="R20" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45211</v>
+        <v>45232</v>
       </c>
       <c r="S20" s="5" t="e">
         <f t="shared" si="1"/>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -8331,7 +8331,7 @@
       </c>
       <c r="R21" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45211</v>
+        <v>45232</v>
       </c>
       <c r="S21" s="5" t="e">
         <f t="shared" si="1"/>
@@ -8354,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -8379,7 +8379,7 @@
       </c>
       <c r="R22" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45211</v>
+        <v>45232</v>
       </c>
       <c r="S22" s="5" t="e">
         <f t="shared" si="1"/>
@@ -8402,7 +8402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -8427,7 +8427,7 @@
       </c>
       <c r="R23" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45211</v>
+        <v>45232</v>
       </c>
       <c r="S23" s="5" t="e">
         <f t="shared" si="1"/>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -8475,7 +8475,7 @@
       </c>
       <c r="R24" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45211</v>
+        <v>45232</v>
       </c>
       <c r="S24" s="5" t="e">
         <f t="shared" si="1"/>
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25" s="26"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
@@ -8522,7 +8522,7 @@
       </c>
       <c r="R25" s="24">
         <f t="shared" ca="1" si="14"/>
-        <v>45211</v>
+        <v>45232</v>
       </c>
       <c r="S25" s="5">
         <v>0.5</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
